--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -851,10 +851,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -884,7 +884,7 @@
         <v>2.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -1000,10 +1000,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1149,10 +1149,10 @@
         <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1236,10 +1236,10 @@
         <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AR5" t="n">
         <v>4.12</v>
@@ -1447,16 +1447,16 @@
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1465,10 +1465,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
         <v>1.62</v>
@@ -1540,10 +1540,10 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.69</v>
+        <v>4.93</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="8">
@@ -1578,46 +1578,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U8" t="n">
         <v>1.33</v>
@@ -1626,22 +1626,22 @@
         <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
@@ -1650,28 +1650,28 @@
         <v>23</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1732,55 +1732,55 @@
         <v>2.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L9" t="n">
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R9" t="n">
         <v>2</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>10</v>
@@ -1792,25 +1792,25 @@
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>6.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AJ9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1864,22 +1864,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1912,10 +1912,10 @@
         <v>3.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y10" t="n">
         <v>11</v>
@@ -1924,13 +1924,13 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD10" t="n">
         <v>26</v>
@@ -1951,22 +1951,22 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
         <v>19</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2154,28 +2154,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
         <v>1.93</v>
       </c>
       <c r="L12" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2202,37 +2202,37 @@
         <v>2.37</v>
       </c>
       <c r="W12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
         <v>1.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
         <v>20</v>
       </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
         <v>110</v>
@@ -2241,16 +2241,16 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AK12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
         <v>45</v>
@@ -2436,22 +2436,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
@@ -2493,10 +2493,10 @@
         <v>7</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
         <v>26</v>
@@ -2520,13 +2520,13 @@
         <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ14" t="n">
         <v>7.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2588,10 +2588,10 @@
         <v>1.38</v>
       </c>
       <c r="H15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -4006,7 +4006,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
@@ -4021,70 +4021,70 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Y25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z25" t="n">
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="n">
         <v>17</v>
       </c>
-      <c r="AC25" t="n">
-        <v>15</v>
-      </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>6.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>19</v>
@@ -4138,16 +4138,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>3.2</v>
       </c>
       <c r="I26" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
         <v>2.05</v>
@@ -4201,7 +4201,7 @@
         <v>11</v>
       </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
         <v>26</v>
@@ -4303,22 +4303,22 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4420,10 +4420,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
         <v>3.05</v>
@@ -4446,10 +4446,10 @@
         <v>3.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S28" t="n">
         <v>2.62</v>
@@ -4466,7 +4466,7 @@
         <v>2.15</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z28" t="n">
         <v>12</v>
@@ -4487,7 +4487,7 @@
         <v>11</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AG28" t="n">
         <v>11.75</v>
@@ -4502,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>10.5</v>
@@ -4514,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4553,28 +4553,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4607,37 +4607,37 @@
         <v>1.91</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA29" t="n">
         <v>8.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC29" t="n">
         <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
       </c>
       <c r="AI29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -4652,7 +4652,7 @@
         <v>67</v>
       </c>
       <c r="AN29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO29" t="n">
         <v>41</v>
@@ -4694,40 +4694,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P30" t="n">
         <v>3.4</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R30" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="S30" t="n">
         <v>3.4</v>
@@ -4742,13 +4742,13 @@
         <v>2.75</v>
       </c>
       <c r="W30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z30" t="n">
         <v>12</v>
@@ -4760,16 +4760,16 @@
         <v>23</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
         <v>13</v>
@@ -4793,10 +4793,10 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4916,7 +4916,7 @@
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
@@ -4940,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4980,19 +4980,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
-      <c r="I32" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L32" t="n">
         <v>3.75</v>
@@ -5010,16 +5010,16 @@
         <v>2.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S32" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U32" t="n">
         <v>1.53</v>
@@ -5040,19 +5040,19 @@
         <v>11</v>
       </c>
       <c r="AA32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC32" t="n">
         <v>23</v>
       </c>
-      <c r="AC32" t="n">
-        <v>21</v>
-      </c>
       <c r="AD32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF32" t="n">
         <v>6</v>
@@ -5061,22 +5061,22 @@
         <v>17</v>
       </c>
       <c r="AH32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI32" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL32" t="n">
         <v>12</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN32" t="n">
         <v>29</v>
@@ -5085,10 +5085,10 @@
         <v>41</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -5155,10 +5155,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H4" t="n">
         <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1000,10 +1000,10 @@
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.57</v>
@@ -1024,22 +1024,22 @@
         <v>1.13</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
         <v>11</v>
@@ -1060,7 +1060,7 @@
         <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>81</v>
@@ -1069,19 +1069,19 @@
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
@@ -1140,10 +1140,10 @@
         <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L5" t="n">
         <v>3.75</v>
@@ -1179,10 +1179,10 @@
         <v>2.2</v>
       </c>
       <c r="W5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y5" t="n">
         <v>6.5</v>
@@ -1191,7 +1191,7 @@
         <v>12</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1212,7 +1212,7 @@
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="n">
         <v>101</v>
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
@@ -1453,10 +1453,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1465,31 +1465,31 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="X7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Y7" t="n">
         <v>4.75</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1501,13 +1501,13 @@
         <v>41</v>
       </c>
       <c r="AE7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
         <v>101</v>
@@ -1525,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>51</v>
       </c>
       <c r="AO7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
         <v>2.1</v>
@@ -1540,7 +1540,7 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.93</v>
+        <v>4.87</v>
       </c>
       <c r="AS7" t="n">
         <v>1.16</v>
@@ -1741,10 +1741,10 @@
         <v>3.25</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -1753,22 +1753,22 @@
         <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W9" t="n">
         <v>1.67</v>
@@ -1792,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="AD9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>6.5</v>
@@ -1807,7 +1807,7 @@
         <v>41</v>
       </c>
       <c r="AI9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ9" t="n">
         <v>9.5</v>
@@ -1825,7 +1825,7 @@
         <v>21</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1864,16 +1864,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2157,19 +2157,19 @@
         <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="K12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2184,46 +2184,46 @@
         <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="T12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X12" t="n">
         <v>1.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AD12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="n">
         <v>5.4</v>
@@ -2241,22 +2241,22 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2295,22 +2295,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="H13" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J13" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>1.87</v>
       </c>
       <c r="L13" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2322,10 +2322,10 @@
         <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2349,16 +2349,16 @@
         <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
         <v>10</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>26</v>
@@ -2382,16 +2382,16 @@
         <v>101</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN13" t="n">
         <v>35</v>
@@ -2445,7 +2445,7 @@
         <v>2.9</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
@@ -2726,22 +2726,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2780,19 +2780,19 @@
         <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
@@ -2822,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>21</v>
@@ -2885,22 +2885,22 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -3029,7 +3029,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3167,10 +3167,10 @@
         <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3179,10 +3179,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
@@ -3290,40 +3290,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>5.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R20" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="n">
         <v>2.63</v>
@@ -3347,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
         <v>12</v>
@@ -3362,10 +3362,10 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -3374,7 +3374,7 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ20" t="n">
         <v>15</v>
@@ -3446,7 +3446,7 @@
         <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
@@ -3461,10 +3461,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
         <v>3.25</v>
@@ -3479,16 +3479,16 @@
         <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>9.5</v>
@@ -3572,13 +3572,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J22" t="n">
         <v>2.3</v>
@@ -3590,10 +3590,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -3716,13 +3716,13 @@
         <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -3731,10 +3731,10 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.29</v>
@@ -3872,10 +3872,10 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H25" t="n">
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
         <v>2.75</v>
@@ -4045,10 +4045,10 @@
         <v>2.75</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X25" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y25" t="n">
         <v>7.5</v>
@@ -4081,13 +4081,13 @@
         <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ25" t="n">
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4162,10 +4162,10 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
         <v>2.1</v>
@@ -4279,13 +4279,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -4294,7 +4294,7 @@
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4303,28 +4303,28 @@
         <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
         <v>1.73</v>
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
@@ -4369,13 +4369,13 @@
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN27" t="n">
         <v>26</v>
@@ -4420,19 +4420,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
         <v>3.5</v>
@@ -4440,22 +4440,22 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S28" t="n">
         <v>2.62</v>
       </c>
       <c r="T28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4466,7 +4466,7 @@
         <v>2.15</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
         <v>12</v>
@@ -4484,10 +4484,10 @@
         <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG28" t="n">
         <v>11.75</v>
@@ -4502,7 +4502,7 @@
         <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL28" t="n">
         <v>10.5</v>
@@ -4514,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4565,7 +4565,7 @@
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
         <v>6.5</v>
@@ -4574,7 +4574,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4607,7 +4607,7 @@
         <v>1.91</v>
       </c>
       <c r="Y29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z29" t="n">
         <v>7</v>
@@ -4625,13 +4625,13 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>8.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4694,13 +4694,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4724,22 +4724,22 @@
         <v>3.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W30" t="n">
         <v>1.75</v>
@@ -4754,7 +4754,7 @@
         <v>12</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
@@ -4775,13 +4775,13 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4940,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5022,10 +5022,10 @@
         <v>1.17</v>
       </c>
       <c r="U32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
@@ -5034,7 +5034,7 @@
         <v>1.73</v>
       </c>
       <c r="Y32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z32" t="n">
         <v>11</v>
@@ -5085,10 +5085,10 @@
         <v>41</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -5155,10 +5155,10 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -1453,10 +1453,10 @@
         <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
         <v>2.88</v>
@@ -1465,10 +1465,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1540,10 +1540,10 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>4.87</v>
+        <v>5.06</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="8">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1668,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1747,16 +1747,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>3.25</v>
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1939,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -2023,10 +2023,10 @@
         <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2035,16 +2035,16 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2110,16 +2110,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="12">
@@ -2157,7 +2157,7 @@
         <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I12" t="n">
         <v>3.65</v>
@@ -2169,7 +2169,7 @@
         <v>1.91</v>
       </c>
       <c r="L12" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2181,7 +2181,7 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q12" t="n">
         <v>2.5</v>
@@ -2214,7 +2214,7 @@
         <v>9</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2256,7 +2256,7 @@
         <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2295,37 +2295,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="L13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2343,40 +2343,40 @@
         <v>2.27</v>
       </c>
       <c r="W13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
         <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD13" t="n">
         <v>45</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI13" t="n">
         <v>101</v>
@@ -2388,13 +2388,13 @@
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM13" t="n">
         <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
         <v>50</v>
@@ -2606,7 +2606,7 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2615,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
         <v>2.75</v>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2741,7 +2741,7 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2756,16 +2756,16 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2804,10 +2804,10 @@
         <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>201</v>
@@ -2816,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>10</v>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
@@ -3164,13 +3164,13 @@
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3179,10 +3179,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
@@ -3212,10 +3212,10 @@
         <v>9.5</v>
       </c>
       <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
         <v>21</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3224,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3431,28 +3431,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L21" t="n">
         <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3461,16 +3461,16 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U21" t="n">
         <v>1.4</v>
@@ -3479,10 +3479,10 @@
         <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -3494,16 +3494,16 @@
         <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>19</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
@@ -3512,13 +3512,13 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3590,40 +3590,40 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y22" t="n">
         <v>6.5</v>
@@ -3644,19 +3644,19 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
         <v>7</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
@@ -3854,13 +3854,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3957,10 +3957,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4138,10 +4138,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
         <v>2.35</v>
@@ -4150,46 +4150,46 @@
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
@@ -4198,7 +4198,7 @@
         <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -4207,10 +4207,10 @@
         <v>26</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -4222,16 +4222,16 @@
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM26" t="n">
         <v>23</v>
@@ -4240,7 +4240,7 @@
         <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
@@ -4282,10 +4282,10 @@
         <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -4297,10 +4297,10 @@
         <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O27" t="n">
         <v>1.25</v>
@@ -4309,10 +4309,10 @@
         <v>3.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S27" t="n">
         <v>3</v>
@@ -4321,19 +4321,19 @@
         <v>1.36</v>
       </c>
       <c r="U27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V27" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
         <v>11</v>
@@ -4348,10 +4348,10 @@
         <v>17</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF27" t="n">
         <v>6.5</v>
@@ -4363,10 +4363,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -4381,7 +4381,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4426,16 +4426,16 @@
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -4443,19 +4443,19 @@
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
         <v>1.7</v>
       </c>
       <c r="R28" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="T28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4466,31 +4466,31 @@
         <v>2.15</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
         <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AF28" t="n">
         <v>6.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH28" t="n">
         <v>45</v>
@@ -4499,10 +4499,10 @@
         <v>300</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
         <v>10.5</v>
@@ -4511,10 +4511,10 @@
         <v>40</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4553,16 +4553,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
         <v>2.38</v>
@@ -4571,13 +4571,13 @@
         <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4592,7 +4592,7 @@
         <v>2.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U29" t="n">
         <v>1.33</v>
@@ -4601,13 +4601,13 @@
         <v>3.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z29" t="n">
         <v>7</v>
@@ -4625,13 +4625,13 @@
         <v>26</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>8.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>51</v>
@@ -4646,16 +4646,16 @@
         <v>34</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN29" t="n">
         <v>51</v>
       </c>
       <c r="AO29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4697,7 +4697,7 @@
         <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>2.9</v>
@@ -4712,13 +4712,13 @@
         <v>3.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>9.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
         <v>3.4</v>
@@ -4727,13 +4727,13 @@
         <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4742,13 +4742,13 @@
         <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X30" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
         <v>12</v>
@@ -4853,16 +4853,16 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q31" t="n">
         <v>2.4</v>
@@ -4874,7 +4874,7 @@
         <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U31" t="n">
         <v>1.53</v>
@@ -4919,7 +4919,7 @@
         <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AJ31" t="n">
         <v>7.5</v>
@@ -4940,10 +4940,10 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -4980,28 +4980,28 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L32" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -5028,25 +5028,25 @@
         <v>2.25</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
         <v>11</v>
       </c>
       <c r="AB32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC32" t="n">
         <v>26</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>23</v>
       </c>
       <c r="AD32" t="n">
         <v>41</v>
@@ -5067,19 +5067,19 @@
         <v>1250</v>
       </c>
       <c r="AJ32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO32" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -836,13 +836,13 @@
         <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>1.83</v>
@@ -851,10 +851,10 @@
         <v>4.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.57</v>
@@ -881,10 +881,10 @@
         <v>2.2</v>
       </c>
       <c r="W3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -908,10 +908,10 @@
         <v>5.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>81</v>
@@ -920,7 +920,7 @@
         <v>101</v>
       </c>
       <c r="AJ3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK3" t="n">
         <v>17</v>
@@ -1131,16 +1131,16 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H5" t="n">
         <v>2.88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.9</v>
       </c>
       <c r="I5" t="n">
         <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
@@ -1155,22 +1155,22 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1242,10 +1242,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.12</v>
+        <v>4.29</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="6">
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
         <v>2.88</v>
@@ -1593,7 +1593,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1620,10 +1620,10 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1632,7 +1632,7 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
         <v>13</v>
@@ -1641,13 +1641,13 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1747,16 +1747,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
         <v>3.25</v>
@@ -1885,7 +1885,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1894,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S10" t="n">
         <v>2.75</v>
@@ -1906,10 +1906,10 @@
         <v>1.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W10" t="n">
         <v>1.62</v>
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>6.5</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.2</v>
@@ -2026,7 +2026,7 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2035,10 +2035,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2080,7 +2080,7 @@
         <v>8.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
@@ -2092,13 +2092,13 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
         <v>67</v>
@@ -2113,7 +2113,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="AR11" t="n">
         <v>3.2</v>
@@ -2298,19 +2298,19 @@
         <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>1.85</v>
       </c>
       <c r="L13" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2322,10 +2322,10 @@
         <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R13" t="n">
         <v>1.45</v>
@@ -2340,28 +2340,28 @@
         <v>1.57</v>
       </c>
       <c r="V13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="X13" t="n">
         <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB13" t="n">
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD13" t="n">
         <v>45</v>
@@ -2376,19 +2376,19 @@
         <v>16.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="n">
         <v>101</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM13" t="n">
         <v>40</v>
@@ -2466,10 +2466,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>4.5</v>
@@ -2541,10 +2541,10 @@
         <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AR14" t="n">
         <v>3.2</v>
@@ -2603,10 +2603,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2615,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>2.75</v>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2741,25 +2741,25 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2792,13 +2792,13 @@
         <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD16" t="n">
         <v>29</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
@@ -2816,7 +2816,7 @@
         <v>9</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>10</v>
@@ -2867,19 +2867,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
         <v>6</v>
@@ -2909,10 +2909,10 @@
         <v>1.33</v>
       </c>
       <c r="U17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W17" t="n">
         <v>1.95</v>
@@ -2921,7 +2921,7 @@
         <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z17" t="n">
         <v>7</v>
@@ -2936,28 +2936,28 @@
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>7.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>19</v>
@@ -2966,7 +2966,7 @@
         <v>67</v>
       </c>
       <c r="AN17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO17" t="n">
         <v>51</v>
@@ -3167,10 +3167,10 @@
         <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3179,10 +3179,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3518,7 +3518,7 @@
         <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3863,7 +3863,7 @@
         <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
@@ -3917,7 +3917,7 @@
         <v>9.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC24" t="n">
         <v>19</v>
@@ -3926,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6.5</v>
@@ -3948,7 +3948,7 @@
         <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -4297,28 +4297,28 @@
         <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U27" t="n">
         <v>1.36</v>
@@ -4426,7 +4426,7 @@
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
         <v>2.75</v>
@@ -4484,19 +4484,19 @@
         <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF28" t="n">
         <v>6.4</v>
       </c>
       <c r="AG28" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH28" t="n">
         <v>45</v>
       </c>
       <c r="AI28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AJ28" t="n">
         <v>10.5</v>
@@ -4571,13 +4571,13 @@
         <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4592,7 +4592,7 @@
         <v>2.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
         <v>1.33</v>
@@ -4697,13 +4697,13 @@
         <v>2.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
@@ -4712,16 +4712,16 @@
         <v>3.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
         <v>2.05</v>
@@ -4733,7 +4733,7 @@
         <v>3.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4766,13 +4766,13 @@
         <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
         <v>51</v>
@@ -4784,7 +4784,7 @@
         <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
         <v>11</v>
@@ -4853,16 +4853,16 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
         <v>7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q31" t="n">
         <v>2.4</v>
@@ -4874,7 +4874,7 @@
         <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U31" t="n">
         <v>1.53</v>
@@ -5049,7 +5049,7 @@
         <v>26</v>
       </c>
       <c r="AD32" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
         <v>6.5</v>
@@ -5082,7 +5082,7 @@
         <v>26</v>
       </c>
       <c r="AO32" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AP32" t="n">
         <v>1.85</v>
@@ -5125,28 +5125,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
         <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5155,16 +5155,16 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U33" t="n">
         <v>1.44</v>
@@ -5194,7 +5194,7 @@
         <v>21</v>
       </c>
       <c r="AD33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE33" t="n">
         <v>9.5</v>
@@ -5212,16 +5212,16 @@
         <v>151</v>
       </c>
       <c r="AJ33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK33" t="n">
         <v>13</v>
       </c>
       <c r="AL33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
         <v>3.2</v>
@@ -1385,10 +1385,10 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AR6" t="n">
         <v>4.02</v>
@@ -1459,10 +1459,10 @@
         <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>6.5</v>
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1620,10 +1620,10 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1632,7 +1632,7 @@
         <v>2.38</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>13</v>
@@ -1641,13 +1641,13 @@
         <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1668,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1680,7 +1680,7 @@
         <v>21</v>
       </c>
       <c r="AO8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1723,22 +1723,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1747,16 +1747,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S9" t="n">
         <v>3.25</v>
@@ -1771,13 +1771,13 @@
         <v>2.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X9" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
@@ -1801,7 +1801,7 @@
         <v>6.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
@@ -1810,7 +1810,7 @@
         <v>201</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.4</v>
@@ -1885,7 +1885,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1894,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S10" t="n">
         <v>2.75</v>
@@ -1906,10 +1906,10 @@
         <v>1.4</v>
       </c>
       <c r="U10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W10" t="n">
         <v>1.62</v>
@@ -1936,10 +1936,10 @@
         <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>12</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
         <v>2.2</v>
@@ -2026,19 +2026,19 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -2053,10 +2053,10 @@
         <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2080,7 +2080,7 @@
         <v>8.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
@@ -2113,7 +2113,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="AR11" t="n">
         <v>3.2</v>
@@ -2154,22 +2154,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="K12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L12" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="M12" t="n">
         <v>1.12</v>
@@ -2181,19 +2181,19 @@
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="T12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U12" t="n">
         <v>1.53</v>
@@ -2202,25 +2202,25 @@
         <v>2.35</v>
       </c>
       <c r="W12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>9.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD12" t="n">
         <v>40</v>
@@ -2229,34 +2229,34 @@
         <v>5.4</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI12" t="n">
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2615,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
         <v>2.75</v>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
@@ -2738,34 +2738,34 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
         <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2774,10 +2774,10 @@
         <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -2792,31 +2792,31 @@
         <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF16" t="n">
         <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
         <v>201</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>10</v>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -2867,13 +2867,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -2882,7 +2882,7 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2897,10 +2897,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2921,7 +2921,7 @@
         <v>1.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z17" t="n">
         <v>7</v>
@@ -2930,28 +2930,28 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC17" t="n">
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
         <v>51</v>
       </c>
       <c r="AI17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -2966,7 +2966,7 @@
         <v>67</v>
       </c>
       <c r="AN17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO17" t="n">
         <v>51</v>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3023,7 +3023,7 @@
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3038,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -3062,16 +3062,16 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
         <v>29</v>
@@ -3098,7 +3098,7 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AL18" t="n">
         <v>9.5</v>
@@ -3149,19 +3149,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
         <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19" t="n">
         <v>3.6</v>
@@ -3170,7 +3170,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3203,7 +3203,7 @@
         <v>1.95</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3221,10 +3221,10 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3233,7 +3233,7 @@
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ19" t="n">
         <v>9</v>
@@ -3245,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3446,7 +3446,7 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.06</v>
@@ -3491,13 +3491,13 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
@@ -3512,13 +3512,13 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
         <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3572,19 +3572,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
@@ -3620,13 +3620,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
         <v>7.5</v>
@@ -3641,10 +3641,10 @@
         <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>7</v>
@@ -3656,10 +3656,10 @@
         <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -3716,7 +3716,7 @@
         <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
         <v>6.5</v>
@@ -3731,28 +3731,28 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.3</v>
       </c>
       <c r="U23" t="n">
         <v>1.4</v>
@@ -3761,16 +3761,16 @@
         <v>2.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y23" t="n">
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
@@ -3782,19 +3782,19 @@
         <v>13</v>
       </c>
       <c r="AD23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="n">
         <v>501</v>
@@ -3854,19 +3854,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
         <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
@@ -3890,10 +3890,10 @@
         <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U24" t="n">
         <v>1.53</v>
@@ -3911,10 +3911,10 @@
         <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3923,10 +3923,10 @@
         <v>19</v>
       </c>
       <c r="AD24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>6.5</v>
@@ -3939,10 +3939,10 @@
       </c>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL24" t="n">
         <v>15</v>
@@ -3957,10 +3957,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4021,10 +4021,10 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
@@ -4138,7 +4138,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
@@ -4168,16 +4168,16 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4204,7 +4204,7 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
@@ -4282,10 +4282,10 @@
         <v>2.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
@@ -4321,22 +4321,22 @@
         <v>1.33</v>
       </c>
       <c r="U27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA27" t="n">
         <v>9</v>
@@ -4348,10 +4348,10 @@
         <v>17</v>
       </c>
       <c r="AD27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
         <v>6.5</v>
@@ -4363,10 +4363,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>17</v>
@@ -4381,7 +4381,7 @@
         <v>26</v>
       </c>
       <c r="AO27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -4429,13 +4429,13 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -4443,7 +4443,7 @@
         <v>1.23</v>
       </c>
       <c r="P28" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q28" t="n">
         <v>1.7</v>
@@ -4452,10 +4452,10 @@
         <v>1.93</v>
       </c>
       <c r="S28" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="T28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -4466,22 +4466,22 @@
         <v>2.15</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>11.25</v>
@@ -4496,13 +4496,13 @@
         <v>45</v>
       </c>
       <c r="AI28" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>10.5</v>
@@ -4511,10 +4511,10 @@
         <v>40</v>
       </c>
       <c r="AN28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -4562,7 +4562,7 @@
         <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
         <v>2.38</v>
@@ -4574,7 +4574,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4601,10 +4601,10 @@
         <v>3.25</v>
       </c>
       <c r="W29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
@@ -4700,7 +4700,7 @@
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J30" t="n">
         <v>3.2</v>
@@ -4730,10 +4730,10 @@
         <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4781,7 +4781,7 @@
         <v>251</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK30" t="n">
         <v>13</v>
@@ -4998,10 +4998,10 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -5155,16 +5155,16 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U33" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1188,10 +1188,10 @@
         <v>6.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -2005,16 +2005,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2023,10 +2023,10 @@
         <v>6.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2047,10 +2047,10 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
         <v>2.25</v>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2077,10 +2077,10 @@
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG11" t="n">
         <v>23</v>
@@ -2154,67 +2154,67 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="I12" t="n">
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L12" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="M12" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V12" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="W12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z12" t="n">
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB12" t="n">
         <v>24</v>
@@ -2226,13 +2226,13 @@
         <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AF12" t="n">
         <v>5.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH12" t="n">
         <v>100</v>
@@ -2241,22 +2241,22 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2310,7 +2310,7 @@
         <v>1.85</v>
       </c>
       <c r="L13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.13</v>
@@ -2319,19 +2319,19 @@
         <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="T13" t="n">
         <v>1.16</v>
@@ -2349,7 +2349,7 @@
         <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="Z13" t="n">
         <v>11.75</v>
@@ -2361,10 +2361,10 @@
         <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE13" t="n">
         <v>5.1</v>
@@ -2373,7 +2373,7 @@
         <v>5.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH13" t="n">
         <v>110</v>
@@ -2397,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2436,13 +2436,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.9</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2460,10 +2460,10 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
         <v>2.5</v>
@@ -2478,19 +2478,19 @@
         <v>1.2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z14" t="n">
         <v>11</v>
@@ -2499,7 +2499,7 @@
         <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2520,7 +2520,7 @@
         <v>67</v>
       </c>
       <c r="AI14" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AJ14" t="n">
         <v>7.5</v>
@@ -2529,22 +2529,22 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
         <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>3.2</v>
@@ -2603,10 +2603,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2873,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -2882,7 +2882,7 @@
         <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -2897,10 +2897,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2930,19 +2930,19 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC17" t="n">
         <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG17" t="n">
         <v>19</v>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3083,7 +3083,7 @@
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3107,7 +3107,7 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO18" t="n">
         <v>34</v>
@@ -3149,19 +3149,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>3.6</v>
@@ -3170,7 +3170,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3206,10 +3206,10 @@
         <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3221,10 +3221,10 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3236,10 +3236,10 @@
         <v>251</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
@@ -3449,10 +3449,10 @@
         <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3461,16 +3461,16 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.4</v>
@@ -3479,10 +3479,10 @@
         <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
@@ -3491,19 +3491,19 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
@@ -3518,7 +3518,7 @@
         <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK21" t="n">
         <v>15</v>
@@ -3713,10 +3713,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
         <v>6.5</v>
@@ -3743,10 +3743,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
         <v>3.5</v>
@@ -3761,16 +3761,16 @@
         <v>2.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y23" t="n">
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
@@ -3785,13 +3785,13 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF23" t="n">
         <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>81</v>
@@ -3854,10 +3854,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
         <v>4.5</v>
@@ -3866,16 +3866,16 @@
         <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3884,16 +3884,16 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="U24" t="n">
         <v>1.53</v>
@@ -3914,7 +3914,7 @@
         <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -3923,7 +3923,7 @@
         <v>19</v>
       </c>
       <c r="AD24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -3937,9 +3937,11 @@
       <c r="AH24" t="n">
         <v>81</v>
       </c>
-      <c r="AI24" t="inlineStr"/>
+      <c r="AI24" t="n">
+        <v>501</v>
+      </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
         <v>21</v>
@@ -3957,10 +3959,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4027,16 +4029,16 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
         <v>1.4</v>
@@ -4156,28 +4158,28 @@
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4429,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L28" t="n">
         <v>3.5</v>
@@ -4440,66 +4442,66 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S28" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="T28" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X28" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="Y28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA28" t="n">
         <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>11.75</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11.25</v>
       </c>
       <c r="AK28" t="n">
         <v>18</v>
@@ -4514,7 +4516,7 @@
         <v>24</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4694,28 +4696,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.33</v>
@@ -4724,10 +4726,10 @@
         <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -4748,13 +4750,13 @@
         <v>1.95</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
         <v>23</v>
@@ -4766,7 +4768,7 @@
         <v>29</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF30" t="n">
         <v>6</v>
@@ -4778,13 +4780,13 @@
         <v>51</v>
       </c>
       <c r="AI30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>11</v>
@@ -4793,7 +4795,7 @@
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>34</v>
@@ -4853,28 +4855,28 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U31" t="n">
         <v>1.53</v>
@@ -4919,7 +4921,7 @@
         <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>7.5</v>
@@ -4940,10 +4942,10 @@
         <v>41</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AR31" t="inlineStr"/>
       <c r="AS31" t="inlineStr"/>
@@ -5155,16 +5157,16 @@
         <v>3.4</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U33" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -857,34 +857,34 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y3" t="n">
         <v>5.5</v>
@@ -893,13 +893,13 @@
         <v>9</v>
       </c>
       <c r="AA3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
@@ -914,7 +914,7 @@
         <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI3" t="n">
         <v>101</v>
@@ -944,7 +944,7 @@
         <v>1.78</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.69</v>
+        <v>4.57</v>
       </c>
       <c r="AS3" t="n">
         <v>1.18</v>
@@ -1093,10 +1093,10 @@
         <v>1.8</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.81</v>
+        <v>4.87</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1185,7 +1185,7 @@
         <v>1.62</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
@@ -1194,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1221,13 +1221,13 @@
         <v>6.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL5" t="n">
         <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>29</v>
@@ -1864,16 +1864,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2020,7 +2020,7 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -2047,10 +2047,10 @@
         <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
         <v>2.25</v>
@@ -2110,16 +2110,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="12">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
@@ -2445,37 +2445,37 @@
         <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.5</v>
       </c>
-      <c r="P14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U14" t="n">
         <v>1.57</v>
@@ -2490,13 +2490,13 @@
         <v>1.67</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA14" t="n">
         <v>11</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>10</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -2514,7 +2514,7 @@
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH14" t="n">
         <v>67</v>
@@ -2541,10 +2541,10 @@
         <v>41</v>
       </c>
       <c r="AP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>1.85</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>2</v>
       </c>
       <c r="AR14" t="n">
         <v>3.2</v>
@@ -2603,10 +2603,10 @@
         <v>7</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -2615,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>2.75</v>
@@ -2738,10 +2738,10 @@
         <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2756,16 +2756,16 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2774,10 +2774,10 @@
         <v>2.75</v>
       </c>
       <c r="W16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
@@ -2795,7 +2795,7 @@
         <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -2804,16 +2804,16 @@
         <v>6.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
         <v>201</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>15</v>
@@ -2825,7 +2825,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3029,7 +3029,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
@@ -3167,10 +3167,10 @@
         <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -3179,10 +3179,10 @@
         <v>3.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S19" t="n">
         <v>3.75</v>
@@ -3290,13 +3290,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J20" t="n">
         <v>2.05</v>
@@ -3305,7 +3305,7 @@
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3362,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>8.5</v>
@@ -3377,7 +3377,7 @@
         <v>251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN20" t="n">
         <v>41</v>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -3485,7 +3485,7 @@
         <v>2.05</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
         <v>12</v>
@@ -3530,7 +3530,7 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -3590,10 +3590,10 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -3713,16 +3713,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H23" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I23" t="n">
         <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -3731,10 +3731,10 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.3</v>
@@ -3785,13 +3785,13 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF23" t="n">
         <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>81</v>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
@@ -3869,7 +3869,7 @@
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3884,10 +3884,10 @@
         <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3914,7 +3914,7 @@
         <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
         <v>15</v>
@@ -4029,16 +4029,16 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
         <v>1.4</v>
@@ -4158,22 +4158,22 @@
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -4422,22 +4422,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J28" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K28" t="n">
         <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -4468,22 +4468,22 @@
         <v>2.27</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
         <v>8.75</v>
       </c>
       <c r="AB28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC28" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE28" t="n">
         <v>12.5</v>
@@ -4501,22 +4501,22 @@
         <v>250</v>
       </c>
       <c r="AJ28" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -5000,10 +5000,10 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -944,10 +944,10 @@
         <v>1.78</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.57</v>
+        <v>4.8</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -1093,10 +1093,10 @@
         <v>1.8</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.87</v>
+        <v>5</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>3.5</v>
@@ -1218,7 +1218,7 @@
         <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK5" t="n">
         <v>13</v>
@@ -1230,7 +1230,7 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>41</v>
@@ -1242,10 +1242,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.29</v>
+        <v>4.4</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1391,10 +1391,10 @@
         <v>1.93</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.02</v>
+        <v>4.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="7">
@@ -1540,10 +1540,10 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.06</v>
+        <v>5.2</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="8">
@@ -1578,16 +1578,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H8" t="n">
         <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1668,10 +1668,10 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
@@ -1864,16 +1864,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>13</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2023,10 +2023,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2053,10 +2053,10 @@
         <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
@@ -2068,7 +2068,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>15</v>
@@ -2083,7 +2083,7 @@
         <v>7.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>81</v>
@@ -2092,10 +2092,10 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
         <v>19</v>
@@ -2110,16 +2110,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12">
@@ -2154,64 +2154,64 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I12" t="n">
         <v>3.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K12" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="L12" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
         <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.17</v>
       </c>
       <c r="U12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Y12" t="n">
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA12" t="n">
         <v>9.5</v>
@@ -2226,7 +2226,7 @@
         <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF12" t="n">
         <v>5.5</v>
@@ -2241,22 +2241,22 @@
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2645,22 +2645,22 @@
         <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
@@ -2672,13 +2672,13 @@
         <v>351</v>
       </c>
       <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
         <v>19</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3023,7 +3023,7 @@
         <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3038,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -3062,16 +3062,16 @@
         <v>1.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
         <v>12</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
         <v>29</v>
@@ -3083,7 +3083,7 @@
         <v>8.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG18" t="n">
         <v>17</v>
@@ -3098,16 +3098,16 @@
         <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>34</v>
@@ -3149,16 +3149,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3203,13 +3203,13 @@
         <v>1.95</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3239,7 +3239,7 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3290,13 +3290,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>2.05</v>
@@ -3305,7 +3305,7 @@
         <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3362,7 +3362,7 @@
         <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>8.5</v>
@@ -3377,7 +3377,7 @@
         <v>251</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
         <v>41</v>
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -3449,28 +3449,28 @@
         <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.33</v>
       </c>
       <c r="U21" t="n">
         <v>1.4</v>
@@ -3479,55 +3479,55 @@
         <v>2.75</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>201</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
@@ -3575,43 +3575,43 @@
         <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3620,13 +3620,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="X22" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z22" t="n">
         <v>7.5</v>
@@ -3641,10 +3641,10 @@
         <v>15</v>
       </c>
       <c r="AD22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
         <v>7</v>
@@ -3656,10 +3656,10 @@
         <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -3722,7 +3722,7 @@
         <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>2.25</v>
@@ -3761,16 +3761,16 @@
         <v>2.75</v>
       </c>
       <c r="W23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y23" t="n">
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="n">
         <v>8.5</v>
@@ -3854,79 +3854,79 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.44</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y24" t="n">
         <v>5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
         <v>7.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
         <v>6.5</v>
@@ -3941,13 +3941,13 @@
         <v>501</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
         <v>21</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
@@ -3959,10 +3959,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4029,16 +4029,16 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
         <v>1.4</v>
@@ -4161,7 +4161,7 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.4</v>
@@ -4170,31 +4170,31 @@
         <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -4212,22 +4212,22 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK26" t="n">
         <v>11</v>
@@ -4422,22 +4422,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="K28" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L28" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
@@ -4448,75 +4448,75 @@
         <v>3.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R28" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="X28" t="n">
-        <v>2.27</v>
+        <v>2.47</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="n">
         <v>14</v>
       </c>
-      <c r="AA28" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AF28" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
       <c r="AK28" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>37</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4555,7 +4555,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
@@ -4564,19 +4564,19 @@
         <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L29" t="n">
         <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.22</v>
@@ -4585,10 +4585,10 @@
         <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
         <v>2.75</v>
@@ -4717,19 +4717,19 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
@@ -5145,10 +5145,10 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5160,7 +5160,7 @@
         <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S33" t="n">
         <v>3.5</v>
@@ -5175,10 +5175,10 @@
         <v>2.63</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -5193,22 +5193,22 @@
         <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD33" t="n">
         <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF33" t="n">
         <v>6</v>
       </c>
       <c r="AG33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
         <v>151</v>
@@ -5217,7 +5217,7 @@
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL33" t="n">
         <v>10</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>1.83</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1185,19 +1185,19 @@
         <v>1.62</v>
       </c>
       <c r="Y5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1218,22 +1218,22 @@
         <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL5" t="n">
         <v>13</v>
       </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>34</v>
       </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP5" t="n">
         <v>2.1</v>
@@ -1578,22 +1578,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1620,67 +1620,67 @@
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="X8" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
       <c r="AA8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
         <v>41</v>
       </c>
       <c r="AI8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
         <v>12</v>
       </c>
-      <c r="AK8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>11</v>
-      </c>
       <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO8" t="n">
         <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>23</v>
       </c>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
@@ -1864,22 +1864,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1918,22 +1918,22 @@
         <v>2.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD10" t="n">
         <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>26</v>
       </c>
       <c r="AE10" t="n">
         <v>13</v>
@@ -1942,7 +1942,7 @@
         <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1951,19 +1951,19 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
         <v>5.5</v>
@@ -2023,10 +2023,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2080,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
         <v>21</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>51</v>
@@ -2110,10 +2110,10 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="AR11" t="n">
         <v>3.3</v>
@@ -2154,61 +2154,61 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.3</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="X12" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>9.75</v>
@@ -2217,46 +2217,46 @@
         <v>9.5</v>
       </c>
       <c r="AB12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC12" t="n">
         <v>24</v>
       </c>
-      <c r="AC12" t="n">
-        <v>23</v>
-      </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AI12" t="n">
         <v>101</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK12" t="n">
         <v>17.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2600,7 +2600,7 @@
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2633,13 +2633,13 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X15" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z15" t="n">
         <v>6.5</v>
@@ -2648,13 +2648,13 @@
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -2873,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.1</v>
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J18" t="n">
         <v>4</v>
@@ -3029,7 +3029,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3101,10 +3101,10 @@
         <v>9.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN18" t="n">
         <v>19</v>
@@ -3149,16 +3149,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3203,13 +3203,13 @@
         <v>1.95</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3239,7 +3239,7 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3449,28 +3449,28 @@
         <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.29</v>
       </c>
       <c r="U21" t="n">
         <v>1.4</v>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
         <v>3.8</v>
@@ -3590,22 +3590,22 @@
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R22" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
         <v>3.5</v>
@@ -3653,7 +3653,7 @@
         <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="n">
         <v>401</v>
@@ -3722,43 +3722,43 @@
         <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W23" t="n">
         <v>2.2</v>
@@ -3767,13 +3767,13 @@
         <v>1.62</v>
       </c>
       <c r="Y23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z23" t="n">
         <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
         <v>9.5</v>
@@ -3785,7 +3785,7 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>8.5</v>
@@ -3800,7 +3800,7 @@
         <v>501</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
@@ -3857,10 +3857,10 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
@@ -3869,13 +3869,13 @@
         <v>1.91</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.53</v>
@@ -3884,10 +3884,10 @@
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="n">
         <v>5.5</v>
@@ -3896,10 +3896,10 @@
         <v>1.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
         <v>2.25</v>
@@ -3908,10 +3908,10 @@
         <v>1.57</v>
       </c>
       <c r="Y24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
         <v>9.5</v>
@@ -3926,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6.5</v>
@@ -3941,16 +3941,16 @@
         <v>501</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
@@ -4029,10 +4029,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
@@ -4143,16 +4143,16 @@
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L26" t="n">
         <v>3.2</v>
@@ -4161,13 +4161,13 @@
         <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
         <v>2.35</v>
@@ -4212,7 +4212,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -4221,16 +4221,16 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI26" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ26" t="n">
         <v>6.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -4244,8 +4244,12 @@
       <c r="AO26" t="n">
         <v>34</v>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AP26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2.1</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
     </row>
@@ -4281,46 +4285,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
         <v>2.2</v>
       </c>
       <c r="L27" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T27" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.33</v>
       </c>
       <c r="U27" t="n">
         <v>1.4</v>
@@ -4329,61 +4333,61 @@
         <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF27" t="n">
         <v>6.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM27" t="n">
         <v>41</v>
       </c>
-      <c r="AI27" t="n">
-        <v>201</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>34</v>
       </c>
-      <c r="AN27" t="n">
-        <v>26</v>
-      </c>
       <c r="AO27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP27" t="inlineStr"/>
       <c r="AQ27" t="inlineStr"/>
@@ -5000,10 +5004,10 @@
         <v>3.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
         <v>1.44</v>
@@ -5127,13 +5131,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
         <v>3.25</v>
@@ -5142,7 +5146,7 @@
         <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M33" t="n">
         <v>1.04</v>
@@ -5217,19 +5221,19 @@
         <v>8.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP33" t="n">
         <v>1.47</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -890,13 +890,13 @@
         <v>5.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>26</v>
@@ -920,10 +920,10 @@
         <v>101</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL3" t="n">
         <v>15</v>
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
         <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
         <v>4.33</v>
@@ -1155,22 +1155,22 @@
         <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.62</v>
@@ -1194,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>23</v>
@@ -1242,10 +1242,10 @@
         <v>1.78</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="6">
@@ -1298,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1340,13 +1340,13 @@
         <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
@@ -1367,16 +1367,16 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>19</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
         <v>51</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1813,13 +1813,13 @@
         <v>9</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -1864,13 +1864,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>3.75</v>
@@ -1879,7 +1879,7 @@
         <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1921,16 +1921,16 @@
         <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
@@ -2295,28 +2295,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.55</v>
@@ -2325,16 +2325,16 @@
         <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R13" t="n">
         <v>1.44</v>
       </c>
       <c r="S13" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2349,31 +2349,31 @@
         <v>1.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AD13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH13" t="n">
         <v>110</v>
@@ -2382,22 +2382,22 @@
         <v>101</v>
       </c>
       <c r="AJ13" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AK13" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN13" t="n">
         <v>40</v>
       </c>
-      <c r="AN13" t="n">
-        <v>32</v>
-      </c>
       <c r="AO13" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
@@ -2484,10 +2484,10 @@
         <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y14" t="n">
         <v>6</v>
@@ -2496,7 +2496,7 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB14" t="n">
         <v>23</v>
@@ -2526,16 +2526,16 @@
         <v>7.5</v>
       </c>
       <c r="AK14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL14" t="n">
         <v>13</v>
       </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
       <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
         <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2600,7 +2600,7 @@
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2633,13 +2633,13 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z15" t="n">
         <v>6.5</v>
@@ -2654,7 +2654,7 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>13</v>
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
         <v>3.1</v>
@@ -2756,16 +2756,16 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2813,13 +2813,13 @@
         <v>201</v>
       </c>
       <c r="AJ16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK16" t="n">
         <v>15</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM16" t="n">
         <v>29</v>
@@ -2897,10 +2897,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -3149,16 +3149,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
@@ -3203,13 +3203,13 @@
         <v>1.95</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
@@ -3239,7 +3239,7 @@
         <v>8.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL19" t="n">
         <v>11</v>
@@ -3290,10 +3290,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>5.5</v>
@@ -3332,10 +3332,10 @@
         <v>1.44</v>
       </c>
       <c r="U20" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V20" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W20" t="n">
         <v>1.8</v>
@@ -3347,7 +3347,7 @@
         <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
@@ -3374,10 +3374,10 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>29</v>
@@ -3572,46 +3572,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3620,13 +3620,13 @@
         <v>2.63</v>
       </c>
       <c r="W22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z22" t="n">
         <v>7.5</v>
@@ -3644,22 +3644,22 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG22" t="n">
         <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -3731,10 +3731,10 @@
         <v>7.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3743,10 +3743,10 @@
         <v>3.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
         <v>3.75</v>
@@ -3878,10 +3878,10 @@
         <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
         <v>2.6</v>
@@ -3896,10 +3896,10 @@
         <v>1.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W24" t="n">
         <v>2.25</v>
@@ -3950,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
@@ -3959,10 +3959,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4143,43 +4143,43 @@
         <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
         <v>2.38</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.53</v>
@@ -4188,10 +4188,10 @@
         <v>2.38</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y26" t="n">
         <v>8</v>
@@ -4212,7 +4212,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
@@ -4221,16 +4221,16 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -4583,10 +4583,10 @@
         <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
         <v>1.7</v>
@@ -4595,10 +4595,10 @@
         <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U29" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -944,10 +944,10 @@
         <v>1.78</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
@@ -1206,7 +1206,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1218,19 +1218,19 @@
         <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL5" t="n">
         <v>15</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="n">
         <v>51</v>
@@ -1298,10 +1298,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1310,16 +1310,16 @@
         <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U6" t="n">
         <v>1.57</v>
@@ -1385,16 +1385,16 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -1578,13 +1578,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
         <v>2.5</v>
@@ -1602,22 +1602,22 @@
         <v>15</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.3</v>
@@ -1723,16 +1723,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>2.2</v>
@@ -1747,16 +1747,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
         <v>3.25</v>
@@ -1771,13 +1771,13 @@
         <v>2.75</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="X9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
         <v>13</v>
@@ -1801,7 +1801,7 @@
         <v>6.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>41</v>
@@ -1810,16 +1810,16 @@
         <v>201</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>10</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN9" t="n">
         <v>21</v>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I10" t="n">
         <v>2</v>
@@ -1876,34 +1876,34 @@
         <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
         <v>2.63</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U10" t="n">
         <v>1.33</v>
@@ -1912,13 +1912,13 @@
         <v>3.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z10" t="n">
         <v>19</v>
@@ -1927,19 +1927,19 @@
         <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD10" t="n">
         <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG10" t="n">
         <v>13</v>
@@ -1951,7 +1951,7 @@
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK10" t="n">
         <v>11</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2026,7 +2026,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2035,16 +2035,16 @@
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T11" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2062,7 +2062,7 @@
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>9</v>
@@ -2071,13 +2071,13 @@
         <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2098,28 +2098,28 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12">
@@ -2295,46 +2295,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
         <v>1.83</v>
       </c>
       <c r="L13" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="R13" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="T13" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="U13" t="n">
         <v>1.57</v>
@@ -2343,7 +2343,7 @@
         <v>2.25</v>
       </c>
       <c r="W13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
         <v>1.7</v>
@@ -2367,37 +2367,37 @@
         <v>45</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AG13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI13" t="n">
         <v>101</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
         <v>12</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AP13" t="inlineStr"/>
       <c r="AQ13" t="inlineStr"/>
@@ -2436,22 +2436,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.11</v>
@@ -2493,13 +2493,13 @@
         <v>6</v>
       </c>
       <c r="Z14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA14" t="n">
         <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2523,7 +2523,7 @@
         <v>501</v>
       </c>
       <c r="AJ14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2538,7 +2538,7 @@
         <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP14" t="n">
         <v>2</v>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>1.91</v>
@@ -2669,16 +2669,16 @@
         <v>67</v>
       </c>
       <c r="AI15" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ15" t="n">
         <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
         <v>81</v>
@@ -2756,10 +2756,10 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R16" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S16" t="n">
         <v>3.25</v>
@@ -2885,10 +2885,10 @@
         <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -2897,16 +2897,16 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -3038,10 +3038,10 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H19" t="n">
         <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.07</v>
@@ -3212,10 +3212,10 @@
         <v>9.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
         <v>29</v>
@@ -3224,7 +3224,7 @@
         <v>9</v>
       </c>
       <c r="AF19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3233,10 +3233,10 @@
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
@@ -3245,10 +3245,10 @@
         <v>11</v>
       </c>
       <c r="AM19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>34</v>
@@ -3320,10 +3320,10 @@
         <v>4.33</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R20" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>2.63</v>
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -3461,10 +3461,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R21" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S21" t="n">
         <v>3.4</v>
@@ -3488,13 +3488,13 @@
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA21" t="n">
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
         <v>21</v>
@@ -3506,13 +3506,13 @@
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG21" t="n">
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
         <v>201</v>
@@ -3527,7 +3527,7 @@
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN21" t="n">
         <v>21</v>
@@ -3713,22 +3713,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I23" t="n">
         <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3773,10 +3773,10 @@
         <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>13</v>
@@ -3785,10 +3785,10 @@
         <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>23</v>
@@ -3800,7 +3800,7 @@
         <v>501</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
@@ -3896,10 +3896,10 @@
         <v>1.14</v>
       </c>
       <c r="U24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W24" t="n">
         <v>2.25</v>
@@ -3950,7 +3950,7 @@
         <v>15</v>
       </c>
       <c r="AM24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>41</v>
@@ -3959,10 +3959,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -4023,16 +4023,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>3.25</v>
@@ -4146,7 +4146,7 @@
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M26" t="n">
         <v>1.07</v>
@@ -4164,16 +4164,16 @@
         <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -4182,10 +4182,10 @@
         <v>1.22</v>
       </c>
       <c r="U26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V26" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W26" t="n">
         <v>1.95</v>
@@ -4194,7 +4194,7 @@
         <v>1.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z26" t="n">
         <v>15</v>
@@ -4206,25 +4206,25 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ26" t="n">
         <v>7</v>
@@ -4233,10 +4233,10 @@
         <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
@@ -4559,13 +4559,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.95</v>
@@ -4574,13 +4574,13 @@
         <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -4589,10 +4589,10 @@
         <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
         <v>2.63</v>
@@ -4601,16 +4601,16 @@
         <v>1.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
@@ -5149,10 +5149,10 @@
         <v>3.2</v>
       </c>
       <c r="M33" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
         <v>1.3</v>
@@ -5164,7 +5164,7 @@
         <v>2.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S33" t="n">
         <v>3.5</v>
@@ -5197,7 +5197,7 @@
         <v>26</v>
       </c>
       <c r="AC33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD33" t="n">
         <v>34</v>
@@ -5227,13 +5227,13 @@
         <v>11</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN33" t="n">
         <v>21</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
         <v>1.47</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I3" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.8</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.14</v>
@@ -857,22 +857,22 @@
         <v>5.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U3" t="n">
         <v>1.67</v>
@@ -881,37 +881,37 @@
         <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC3" t="n">
         <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>26</v>
       </c>
       <c r="AD3" t="n">
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
         <v>6</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
         <v>101</v>
@@ -920,16 +920,16 @@
         <v>101</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>41</v>
@@ -944,7 +944,7 @@
         <v>1.78</v>
       </c>
       <c r="AR3" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AS3" t="n">
         <v>1.17</v>
@@ -1093,7 +1093,7 @@
         <v>1.8</v>
       </c>
       <c r="AR4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AS4" t="n">
         <v>1.18</v>
@@ -1131,16 +1131,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
@@ -1149,43 +1149,43 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y5" t="n">
         <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>9.5</v>
@@ -1197,22 +1197,22 @@
         <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
       </c>
       <c r="AE5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF5" t="n">
         <v>6</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5.5</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
       </c>
       <c r="AH5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
         <v>101</v>
@@ -1224,28 +1224,28 @@
         <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
       </c>
       <c r="AN5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO5" t="n">
         <v>41</v>
       </c>
-      <c r="AO5" t="n">
-        <v>51</v>
-      </c>
       <c r="AP5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.5</v>
@@ -1298,22 +1298,22 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
         <v>5.5</v>
@@ -1385,10 +1385,10 @@
         <v>51</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR6" t="n">
         <v>4.2</v>
@@ -1429,34 +1429,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
         <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>3.1</v>
@@ -1465,10 +1465,10 @@
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="U7" t="n">
         <v>1.67</v>
@@ -1483,10 +1483,10 @@
         <v>1.44</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1504,19 +1504,19 @@
         <v>5.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="n">
         <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK7" t="n">
         <v>23</v>
@@ -1525,7 +1525,7 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
         <v>51</v>
@@ -1540,10 +1540,10 @@
         <v>1.78</v>
       </c>
       <c r="AR7" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="8">
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2023,28 +2023,28 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2053,16 +2053,16 @@
         <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y11" t="n">
         <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA11" t="n">
         <v>9</v>
@@ -2074,10 +2074,10 @@
         <v>17</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2098,28 +2098,28 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO11" t="n">
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="12">
@@ -2436,28 +2436,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>1.91</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
         <v>1.53</v>
@@ -2466,10 +2466,10 @@
         <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2493,13 +2493,13 @@
         <v>6</v>
       </c>
       <c r="Z14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>10</v>
       </c>
       <c r="AB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -2508,7 +2508,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2523,7 +2523,7 @@
         <v>501</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK14" t="n">
         <v>15</v>
@@ -2532,19 +2532,19 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>34</v>
       </c>
       <c r="AO14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR14" t="n">
         <v>3.2</v>
@@ -2585,46 +2585,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K15" t="n">
         <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U15" t="n">
         <v>1.33</v>
@@ -2633,22 +2633,22 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X15" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y15" t="n">
         <v>7</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2660,13 +2660,13 @@
         <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="n">
         <v>351</v>
@@ -2675,7 +2675,7 @@
         <v>17</v>
       </c>
       <c r="AK15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
         <v>21</v>
@@ -2726,22 +2726,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
@@ -2756,16 +2756,16 @@
         <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
         <v>1.4</v>
@@ -2780,22 +2780,22 @@
         <v>2</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
         <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
         <v>19</v>
       </c>
       <c r="AD16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -2822,13 +2822,13 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K18" t="n">
         <v>2.05</v>
@@ -3026,10 +3026,10 @@
         <v>2.88</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3038,22 +3038,22 @@
         <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T18" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W18" t="n">
         <v>1.95</v>
@@ -3101,16 +3101,16 @@
         <v>9.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
         <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP18" t="inlineStr"/>
       <c r="AQ18" t="inlineStr"/>
@@ -3149,19 +3149,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>3.75</v>
@@ -3173,37 +3173,37 @@
         <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X19" t="n">
         <v>1.8</v>
       </c>
-      <c r="X19" t="n">
-        <v>1.95</v>
-      </c>
       <c r="Y19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z19" t="n">
         <v>11</v>
@@ -3215,16 +3215,16 @@
         <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -3233,16 +3233,16 @@
         <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK19" t="n">
         <v>15</v>
       </c>
       <c r="AL19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM19" t="n">
         <v>34</v>
@@ -3251,7 +3251,7 @@
         <v>26</v>
       </c>
       <c r="AO19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3290,22 +3290,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3314,22 +3314,22 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.3</v>
@@ -3347,16 +3347,16 @@
         <v>8</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>8.5</v>
       </c>
       <c r="AB20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC20" t="n">
         <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
       </c>
       <c r="AD20" t="n">
         <v>23</v>
@@ -3365,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -3374,19 +3374,19 @@
         <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ20" t="n">
         <v>17</v>
       </c>
       <c r="AK20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN20" t="n">
         <v>41</v>
@@ -3396,8 +3396,12 @@
       </c>
       <c r="AP20" t="inlineStr"/>
       <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3431,28 +3435,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.29</v>
@@ -3461,10 +3465,10 @@
         <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S21" t="n">
         <v>3.4</v>
@@ -3491,13 +3495,13 @@
         <v>12</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
         <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
@@ -3512,7 +3516,7 @@
         <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI21" t="n">
         <v>201</v>
@@ -3521,16 +3525,16 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -3572,19 +3576,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>4.75</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
         <v>5.5</v>
@@ -3596,22 +3600,22 @@
         <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U22" t="n">
         <v>1.44</v>
@@ -3626,7 +3630,7 @@
         <v>1.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z22" t="n">
         <v>7.5</v>
@@ -3644,10 +3648,10 @@
         <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG22" t="n">
         <v>19</v>
@@ -3656,10 +3660,10 @@
         <v>67</v>
       </c>
       <c r="AI22" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -3713,22 +3717,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H23" t="n">
         <v>4.1</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3737,16 +3741,16 @@
         <v>10</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
         <v>3.75</v>
@@ -3761,10 +3765,10 @@
         <v>2.63</v>
       </c>
       <c r="W23" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="X23" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="Y23" t="n">
         <v>5.5</v>
@@ -3773,49 +3777,49 @@
         <v>6</v>
       </c>
       <c r="AA23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="n">
         <v>8.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI23" t="n">
         <v>501</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
         <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AO23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
@@ -3857,16 +3861,16 @@
         <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
         <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>5</v>
@@ -3884,16 +3888,16 @@
         <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U24" t="n">
         <v>1.57</v>
@@ -3902,10 +3906,10 @@
         <v>2.25</v>
       </c>
       <c r="W24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y24" t="n">
         <v>5.5</v>
@@ -3920,7 +3924,7 @@
         <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>41</v>
@@ -3941,7 +3945,7 @@
         <v>501</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK24" t="n">
         <v>19</v>
@@ -3959,10 +3963,10 @@
         <v>51</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR24" t="inlineStr"/>
       <c r="AS24" t="inlineStr"/>
@@ -3999,16 +4003,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I25" t="n">
         <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K25" t="n">
         <v>2.2</v>
@@ -4017,10 +4021,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.25</v>
@@ -4029,31 +4033,31 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V25" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
         <v>10</v>
@@ -4065,22 +4069,22 @@
         <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="n">
         <v>201</v>
@@ -4089,7 +4093,7 @@
         <v>11</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4098,10 +4102,10 @@
         <v>41</v>
       </c>
       <c r="AN25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO25" t="n">
         <v>29</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>34</v>
       </c>
       <c r="AP25" t="inlineStr"/>
       <c r="AQ25" t="inlineStr"/>
@@ -4140,16 +4144,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>2</v>
@@ -4158,22 +4162,22 @@
         <v>3.1</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S26" t="n">
         <v>4</v>
@@ -4206,7 +4210,7 @@
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD26" t="n">
         <v>41</v>
@@ -4218,7 +4222,7 @@
         <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>51</v>
@@ -4230,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>9.5</v>
@@ -4559,13 +4563,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
         <v>1.95</v>
@@ -4574,13 +4578,13 @@
         <v>2.4</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -4607,10 +4611,10 @@
         <v>3.4</v>
       </c>
       <c r="W29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y29" t="n">
         <v>7</v>
@@ -4700,13 +4704,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4715,13 +4719,13 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4748,10 +4752,10 @@
         <v>2.63</v>
       </c>
       <c r="W30" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y30" t="n">
         <v>7.5</v>
@@ -4769,7 +4773,7 @@
         <v>21</v>
       </c>
       <c r="AD30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
         <v>8.5</v>
@@ -4796,7 +4800,7 @@
         <v>11</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>26</v>
@@ -4841,13 +4845,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4856,7 +4860,7 @@
         <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4898,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
@@ -4922,7 +4926,7 @@
         <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4934,7 +4938,7 @@
         <v>13</v>
       </c>
       <c r="AL31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM31" t="n">
         <v>29</v>
@@ -5131,22 +5135,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
         <v>1.06</v>
@@ -5155,28 +5159,28 @@
         <v>8</v>
       </c>
       <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.3</v>
       </c>
-      <c r="P33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W33" t="n">
         <v>1.8</v>
@@ -5185,31 +5189,31 @@
         <v>1.91</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD33" t="n">
         <v>34</v>
       </c>
       <c r="AE33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF33" t="n">
         <v>6</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -5218,19 +5222,19 @@
         <v>151</v>
       </c>
       <c r="AJ33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO33" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -982,22 +982,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1006,61 +1006,61 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
         <v>23</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>26</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
         <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
         <v>81</v>
@@ -1069,10 +1069,10 @@
         <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1093,10 +1093,10 @@
         <v>1.8</v>
       </c>
       <c r="AR4" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -1131,22 +1131,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1167,10 +1167,10 @@
         <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="U5" t="n">
         <v>1.57</v>
@@ -1188,16 +1188,16 @@
         <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
         <v>41</v>
@@ -1218,10 +1218,10 @@
         <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>13</v>
@@ -1236,10 +1236,10 @@
         <v>41</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR5" t="n">
         <v>4.3</v>
@@ -1280,19 +1280,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
         <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
@@ -1304,10 +1304,10 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q6" t="n">
         <v>2.7</v>
@@ -1316,25 +1316,25 @@
         <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="X6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z6" t="n">
         <v>7</v>
@@ -1343,31 +1343,31 @@
         <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>6.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="n">
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1382,19 +1382,19 @@
         <v>51</v>
       </c>
       <c r="AO6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7">
@@ -1429,16 +1429,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1459,10 +1459,10 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -1471,10 +1471,10 @@
         <v>1.1</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W7" t="n">
         <v>2.63</v>
@@ -1495,16 +1495,16 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG7" t="n">
         <v>26</v>
@@ -1543,7 +1543,7 @@
         <v>5.6</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="8">
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
         <v>5.5</v>
@@ -2041,10 +2041,10 @@
         <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U11" t="n">
         <v>1.44</v>
@@ -2053,22 +2053,22 @@
         <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z11" t="n">
         <v>6.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2077,13 +2077,13 @@
         <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>81</v>
@@ -2092,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2110,16 +2110,16 @@
         <v>51</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12">
@@ -4563,52 +4563,52 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J29" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L29" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W29" t="n">
         <v>1.91</v>
@@ -4704,10 +4704,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
         <v>3.1</v>
@@ -4734,10 +4734,10 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
         <v>3.75</v>
@@ -4767,7 +4767,7 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
@@ -4779,7 +4779,7 @@
         <v>8.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -4851,7 +4851,7 @@
         <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
@@ -4860,7 +4860,7 @@
         <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
         <v>1.08</v>
@@ -4899,7 +4899,7 @@
         <v>1.73</v>
       </c>
       <c r="Y31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z31" t="n">
         <v>12</v>
@@ -4935,7 +4935,7 @@
         <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL31" t="n">
         <v>11</v>
@@ -4990,22 +4990,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.1</v>
@@ -5020,28 +5020,28 @@
         <v>2.63</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X32" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y32" t="n">
         <v>7</v>
@@ -5095,10 +5095,10 @@
         <v>23</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -1280,28 +1280,28 @@
         </is>
       </c>
       <c r="G6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.83</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>1.57</v>
@@ -1310,10 +1310,10 @@
         <v>2.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
         <v>6</v>
@@ -1322,10 +1322,10 @@
         <v>1.13</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
         <v>2.5</v>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>15</v>
@@ -1352,7 +1352,7 @@
         <v>41</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF6" t="n">
         <v>6.5</v>
@@ -1367,7 +1367,7 @@
         <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1429,22 +1429,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1459,10 +1459,10 @@
         <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>7</v>
@@ -1474,7 +1474,7 @@
         <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>2.63</v>
@@ -1486,7 +1486,7 @@
         <v>4.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>10</v>
@@ -1495,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD7" t="n">
         <v>51</v>
@@ -1507,7 +1507,7 @@
         <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH7" t="n">
         <v>126</v>
@@ -1522,10 +1522,10 @@
         <v>23</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN7" t="n">
         <v>51</v>
@@ -2005,13 +2005,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
         <v>2.25</v>
@@ -2023,10 +2023,10 @@
         <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2068,7 +2068,7 @@
         <v>9.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>17</v>
@@ -2077,7 +2077,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
@@ -2092,7 +2092,7 @@
         <v>101</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>26</v>
@@ -2101,7 +2101,7 @@
         <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>51</v>
@@ -2116,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="AS11" t="n">
         <v>1.25</v>
@@ -4563,46 +4563,46 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
+        <v>7</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L29" t="n">
         <v>6.5</v>
       </c>
-      <c r="J29" t="n">
-        <v>2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L29" t="n">
-        <v>6</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T29" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U29" t="n">
         <v>1.33</v>
@@ -4704,13 +4704,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H30" t="n">
         <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4725,7 +4725,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -4734,16 +4734,16 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U30" t="n">
         <v>1.44</v>
@@ -4767,7 +4767,7 @@
         <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC30" t="n">
         <v>21</v>
@@ -5095,10 +5095,10 @@
         <v>23</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-01-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS33"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,7 +4816,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tQvAmiMO</t>
+          <t>8hAJX9U1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4826,429 +4826,139 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Atl. Tembetary</t>
+          <t>Hamilton</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sportivo Trinidense</t>
+          <t>Raith</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
         <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
         <v>8</v>
       </c>
       <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.4</v>
       </c>
-      <c r="P31" t="n">
+      <c r="V31" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q31" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.38</v>
-      </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X31" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA31" t="n">
         <v>12</v>
       </c>
-      <c r="AA31" t="n">
-        <v>11</v>
-      </c>
       <c r="AB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
         <v>23</v>
       </c>
       <c r="AD31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
         <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>51</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO31" t="n">
         <v>29</v>
       </c>
-      <c r="AN31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>41</v>
-      </c>
       <c r="AP31" t="n">
-        <v>1.75</v>
+        <v>1.47</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>WlKJ7f7t</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>28/01/2025</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>PARAGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Recoleta</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2 de Mayo</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2</v>
-      </c>
-      <c r="X32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>8hAJX9U1</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>28/01/2025</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>16:45</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Raith</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X33" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AQ33" t="n">
         <v>2.65</v>
       </c>
-      <c r="AR33" t="n">
+      <c r="AR31" t="n">
         <v>2.42</v>
       </c>
-      <c r="AS33" t="n">
+      <c r="AS31" t="n">
         <v>1.55</v>
       </c>
     </row>
